--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_12.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_12.xlsx
@@ -512,487 +512,487 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9818650947964725</v>
+        <v>0.8454871032996273</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7751466012622441</v>
+        <v>0.6286673251463893</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7925354143221454</v>
+        <v>0.7327008727006137</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9961193698424112</v>
+        <v>0.8176699193743682</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07548702705421352</v>
+        <v>0.3662253297956605</v>
       </c>
       <c r="G2" t="n">
-        <v>1.503595712714073</v>
+        <v>2.483103306575843</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7420887934818372</v>
+        <v>0.9561134794559931</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01032693226777059</v>
+        <v>0.7417097289873038</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5554344074999779</v>
+        <v>1.325226341215283</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2747490255746388</v>
+        <v>0.6051655391673095</v>
       </c>
       <c r="L2" t="n">
-        <v>2.160633933025757</v>
+        <v>0.7895994598122584</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2790760480791753</v>
+        <v>0.614696291465594</v>
       </c>
       <c r="N2" t="n">
-        <v>135.1675889291753</v>
+        <v>36.00901295967854</v>
       </c>
       <c r="O2" t="n">
-        <v>276.5027614723917</v>
+        <v>72.97359654790436</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_1</t>
+          <t>model_1_12_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9821967198610827</v>
+        <v>0.8426696732182408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7751325012864765</v>
+        <v>0.6088538100530979</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7924843466907697</v>
+        <v>0.7327324433120006</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9960017671858437</v>
+        <v>0.8013003153862113</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07410662886943482</v>
+        <v>0.3729031818246265</v>
       </c>
       <c r="G3" t="n">
-        <v>1.503689999316956</v>
+        <v>2.615596373237531</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7422714594381966</v>
+        <v>0.9560005532096316</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01063989037497598</v>
+        <v>0.8083004664894429</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5501177715261902</v>
+        <v>1.426678556419743</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2722253273841999</v>
+        <v>0.6106579908792044</v>
       </c>
       <c r="L3" t="n">
-        <v>2.139409928890707</v>
+        <v>0.7857629592759023</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2765126041650096</v>
+        <v>0.6202752438015137</v>
       </c>
       <c r="N3" t="n">
-        <v>135.2045005845087</v>
+        <v>35.97287291837053</v>
       </c>
       <c r="O3" t="n">
-        <v>276.5396731277251</v>
+        <v>72.93745650659635</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_2</t>
+          <t>model_1_12_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9825219727452572</v>
+        <v>0.8428161344996928</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7751189585489244</v>
+        <v>0.6088438610194729</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7924004427547279</v>
+        <v>0.7328547570215193</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9958863433443363</v>
+        <v>0.801847123924495</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07275275505583645</v>
+        <v>0.3725560403739935</v>
       </c>
       <c r="G4" t="n">
-        <v>1.503780559665326</v>
+        <v>2.615662902471192</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7425715789523883</v>
+        <v>0.9555630441628395</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01094705033223195</v>
+        <v>0.8060760764636903</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5447627694676334</v>
+        <v>1.417912040811917</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2697271863491637</v>
+        <v>0.6103736891233054</v>
       </c>
       <c r="L4" t="n">
-        <v>2.118593744303539</v>
+        <v>0.7859623959144754</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2739751199058963</v>
+        <v>0.6199864645771569</v>
       </c>
       <c r="N4" t="n">
-        <v>135.2413770069286</v>
+        <v>35.9747356170421</v>
       </c>
       <c r="O4" t="n">
-        <v>276.5765495501449</v>
+        <v>72.93931920526792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_3</t>
+          <t>model_1_12_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9828401600993197</v>
+        <v>0.8436519133483502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7751058142948042</v>
+        <v>0.6086212163043287</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7922811173688102</v>
+        <v>0.7328741737496589</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9957721243900802</v>
+        <v>0.7965985218449777</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07142829169995667</v>
+        <v>0.3705750835022877</v>
       </c>
       <c r="G5" t="n">
-        <v>1.503868455353151</v>
+        <v>2.617151728706546</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7429983989389325</v>
+        <v>0.9554935916521308</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0112510039058525</v>
+        <v>0.8274271295241784</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5394320360954462</v>
+        <v>1.322449237106381</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2672607185875931</v>
+        <v>0.6087487852162727</v>
       </c>
       <c r="L5" t="n">
-        <v>2.098229753643537</v>
+        <v>0.7871004777509449</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2714698077426444</v>
+        <v>0.6183359700578964</v>
       </c>
       <c r="N5" t="n">
-        <v>135.2781224916471</v>
+        <v>35.98539840050112</v>
       </c>
       <c r="O5" t="n">
-        <v>276.6132950348635</v>
+        <v>72.94998198872693</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_4</t>
+          <t>model_1_12_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9831526101211276</v>
+        <v>0.8436322168077568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.775098948300371</v>
+        <v>0.6085816041660411</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7921353649941447</v>
+        <v>0.7329065740297804</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9956595741110532</v>
+        <v>0.7968392956843586</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07012771014275533</v>
+        <v>0.37062176809774</v>
       </c>
       <c r="G6" t="n">
-        <v>1.503914368289541</v>
+        <v>2.617416615257672</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7435197467319026</v>
+        <v>0.955377697728812</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01155051688725774</v>
+        <v>0.8264476734819189</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5340648924114568</v>
+        <v>1.325466505670014</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2648163706094382</v>
+        <v>0.6087871287221339</v>
       </c>
       <c r="L6" t="n">
-        <v>2.078232952247831</v>
+        <v>0.7870736569297114</v>
       </c>
       <c r="M6" t="n">
-        <v>0.268986963727285</v>
+        <v>0.6183749174356454</v>
       </c>
       <c r="N6" t="n">
-        <v>135.3148745371481</v>
+        <v>35.98514645881835</v>
       </c>
       <c r="O6" t="n">
-        <v>276.6500470803645</v>
+        <v>72.94973004704417</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_5</t>
+          <t>model_1_12_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9834588969651811</v>
+        <v>0.8431933178968989</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7750934289094807</v>
+        <v>0.6083442798839531</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7919708789150307</v>
+        <v>0.7324719781061222</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9955489266953101</v>
+        <v>0.794041637997266</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06885278297749446</v>
+        <v>0.371662043063833</v>
       </c>
       <c r="G7" t="n">
-        <v>1.503951276481838</v>
+        <v>2.619003603824773</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7441081038994426</v>
+        <v>0.9569322221484182</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01184496606730855</v>
+        <v>0.8378284062593768</v>
       </c>
       <c r="J7" t="n">
-        <v>0.528722448763032</v>
+        <v>1.333344417841263</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2623981382889262</v>
+        <v>0.6096409132135351</v>
       </c>
       <c r="L7" t="n">
-        <v>2.058630594228411</v>
+        <v>0.7864760073489687</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2665306466650705</v>
+        <v>0.6192421481793148</v>
       </c>
       <c r="N7" t="n">
-        <v>135.3515692674915</v>
+        <v>35.97954064804081</v>
       </c>
       <c r="O7" t="n">
-        <v>276.6867418107079</v>
+        <v>72.94412423626663</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_9</t>
+          <t>model_1_12_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.984624149477577</v>
+        <v>0.8432042344567512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.775086051409124</v>
+        <v>0.6083432568018631</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7911358396993623</v>
+        <v>0.7321848115552809</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9951375158224078</v>
+        <v>0.7923534465088936</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06400238828609488</v>
+        <v>0.37163616871407</v>
       </c>
       <c r="G8" t="n">
-        <v>1.504000609860694</v>
+        <v>2.619010445179419</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7470949907555329</v>
+        <v>0.957959400249904</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0129397914039561</v>
+        <v>0.8446958855421308</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5089684926580728</v>
+        <v>1.311621754361099</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2529869330342871</v>
+        <v>0.6096196918686846</v>
       </c>
       <c r="L8" t="n">
-        <v>1.98405443343507</v>
+        <v>0.7864908724517463</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2569712243354246</v>
+        <v>0.6192205926194965</v>
       </c>
       <c r="N8" t="n">
-        <v>135.497669758697</v>
+        <v>35.97967988878894</v>
       </c>
       <c r="O8" t="n">
-        <v>276.8328423019134</v>
+        <v>72.94426347701476</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_6</t>
+          <t>model_1_12_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9837580478606384</v>
+        <v>0.8431050871530557</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7750846036390567</v>
+        <v>0.6083361586715454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7917796104081956</v>
+        <v>0.7316624735692434</v>
       </c>
       <c r="E9" t="n">
-        <v>0.995438469649042</v>
+        <v>0.7900034217655698</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06760755938877208</v>
+        <v>0.3718711669230846</v>
       </c>
       <c r="G9" t="n">
-        <v>1.5040102911058</v>
+        <v>2.619057910409538</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7447922602580066</v>
+        <v>0.9598277729390634</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0121389086459588</v>
+        <v>0.8542556696957012</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5233980304547468</v>
+        <v>1.287179101303691</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2600145368797139</v>
+        <v>0.6098124030577639</v>
       </c>
       <c r="L9" t="n">
-        <v>2.039484936919145</v>
+        <v>0.7863558633573524</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2641095059163903</v>
+        <v>0.6194163388171633</v>
       </c>
       <c r="N9" t="n">
-        <v>135.388070953815</v>
+        <v>35.97841562033818</v>
       </c>
       <c r="O9" t="n">
-        <v>276.7232434970314</v>
+        <v>72.94299920856399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_7</t>
+          <t>model_1_12_4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9840518246874225</v>
+        <v>0.842848626991565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.775080595487909</v>
+        <v>0.6083342551164668</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7915755052477019</v>
+        <v>0.7327136497004028</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9953316005251474</v>
+        <v>0.7980486301507177</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06638470550437225</v>
+        <v>0.3724790269090601</v>
       </c>
       <c r="G10" t="n">
-        <v>1.504037093630981</v>
+        <v>2.619070639491113</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7455223325823952</v>
+        <v>0.9560677768686004</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01242330323115715</v>
+        <v>0.82152816082542</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5180981471539708</v>
+        <v>1.394212312407318</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2576522957483054</v>
+        <v>0.6103105987192587</v>
       </c>
       <c r="L10" t="n">
-        <v>2.020683220004962</v>
+        <v>0.7860066410097907</v>
       </c>
       <c r="M10" t="n">
-        <v>0.261710061848537</v>
+        <v>0.6199223805623137</v>
       </c>
       <c r="N10" t="n">
-        <v>135.4245771756428</v>
+        <v>35.97514909269493</v>
       </c>
       <c r="O10" t="n">
-        <v>276.7597497188592</v>
+        <v>72.93973268092076</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_8</t>
+          <t>model_1_12_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9843396787492187</v>
+        <v>0.8427472866064878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7750761537667368</v>
+        <v>0.6082956805957902</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7913590703563341</v>
+        <v>0.7327351795689317</v>
       </c>
       <c r="E11" t="n">
-        <v>0.995228137973544</v>
+        <v>0.7988575361019447</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06518650528735365</v>
+        <v>0.3727192231434142</v>
       </c>
       <c r="G11" t="n">
-        <v>1.504066795440912</v>
+        <v>2.619328587488497</v>
       </c>
       <c r="H11" t="n">
-        <v>0.746296507639202</v>
+        <v>0.9559907657772461</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01269863242236301</v>
+        <v>0.8182375715172707</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5128292656315638</v>
+        <v>1.404415311008386</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2553164806418764</v>
+        <v>0.6105073489675732</v>
       </c>
       <c r="L11" t="n">
-        <v>2.002260560050004</v>
+        <v>0.7858686455918131</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2593374599891401</v>
+        <v>0.620122229430361</v>
       </c>
       <c r="N11" t="n">
-        <v>135.4610056111839</v>
+        <v>35.97385979153163</v>
       </c>
       <c r="O11" t="n">
-        <v>276.7961781544004</v>
+        <v>72.93844337975744</v>
       </c>
     </row>
   </sheetData>
